--- a/DataTable/Skin.xlsx
+++ b/DataTable/Skin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12550"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Assets/GamePlay/Art/Skin/4.png</t>
-  </si>
-  <si>
-    <t>Assets/GamePlay/Art/Skin/5.png</t>
   </si>
   <si>
     <t>Assets/GamePlay/Art/Skin/6.png</t>
@@ -123,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -586,19 +583,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,16 +1043,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="30.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="15.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="30.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1100,7 +1097,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1116,7 +1113,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1124,7 +1121,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1180,7 +1177,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1196,7 +1193,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1204,7 +1201,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1228,7 +1225,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1244,7 +1241,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1252,7 +1249,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1268,18 +1265,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1287,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1315,7 +1304,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
